--- a/app/data/pools/erm.xlsx
+++ b/app/data/pools/erm.xlsx
@@ -1,29 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\discovery\app\data\pools\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C69C7EA-16FB-409C-8532-0F8CBBBA1CFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7410" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERM Vendors Master File" sheetId="20" r:id="rId1"/>
-    <sheet name="E1-Desktop Applications" sheetId="1" r:id="rId2"/>
-    <sheet name="E2-Electronic Messages" sheetId="10" r:id="rId3"/>
-    <sheet name="E3-Social Media" sheetId="11" r:id="rId4"/>
-    <sheet name="E4-Cloud Services" sheetId="12" r:id="rId5"/>
-    <sheet name="E5-Websites" sheetId="13" r:id="rId6"/>
-    <sheet name="E6-Digital Media (Photo)" sheetId="14" r:id="rId7"/>
-    <sheet name="E7-Digital Media (Audio)" sheetId="15" r:id="rId8"/>
-    <sheet name="E8-Digital Media (Video)" sheetId="16" r:id="rId9"/>
-    <sheet name="E9-Databases" sheetId="17" r:id="rId10"/>
-    <sheet name="E10-Shared Drives" sheetId="18" r:id="rId11"/>
-    <sheet name="E11-Engineering Drawings" sheetId="19" r:id="rId12"/>
+    <sheet name="E(1)-Desktop Applications" sheetId="1" r:id="rId2"/>
+    <sheet name="E(2)-Electronic Messages" sheetId="10" r:id="rId3"/>
+    <sheet name="E(3)-Social Media" sheetId="11" r:id="rId4"/>
+    <sheet name="E(4)-Cloud Services" sheetId="12" r:id="rId5"/>
+    <sheet name="E(5)-Websites" sheetId="13" r:id="rId6"/>
+    <sheet name="E(6)-Digital Media (Photo)" sheetId="14" r:id="rId7"/>
+    <sheet name="E(7)-Digital Media (Audio)" sheetId="15" r:id="rId8"/>
+    <sheet name="E(8)-Digital Media (Video)" sheetId="16" r:id="rId9"/>
+    <sheet name="E(9)-Databases" sheetId="17" r:id="rId10"/>
+    <sheet name="E(10)-Shared Drives" sheetId="18" r:id="rId11"/>
+    <sheet name="E(11)-Engineering Drawings" sheetId="19" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ERM Vendors Master File'!$A$1:$AK$46</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -801,7 +814,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1148,11 +1161,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text 2" xfId="4"/>
+    <cellStyle name="Explanatory Text 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1228,6 +1241,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1275,7 +1291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1308,9 +1324,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1343,6 +1376,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1518,10 +1568,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -5607,10 +5657,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK46"/>
+  <autoFilter ref="A1:AK46" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5618,10 +5668,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
@@ -8005,19 +8055,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10166,19 +10216,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12415,18 +12465,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
@@ -14801,8 +14851,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -14810,11 +14860,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17095,8 +17145,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -17104,7 +17154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -19129,11 +19179,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21489,8 +21539,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -21498,7 +21548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -23636,8 +23686,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -23645,11 +23695,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26063,19 +26113,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28283,19 +28333,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30503,8 +30553,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/data/pools/erm.xlsx
+++ b/app/data/pools/erm.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\discovery\app\data\pools\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90FBAE9-2809-4454-BDE5-4C26F46D0DFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7410" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERM Vendors Master File" sheetId="20" r:id="rId1"/>
-    <sheet name="E1-Desktop Applications" sheetId="1" r:id="rId2"/>
-    <sheet name="E2-Electronic Messages" sheetId="10" r:id="rId3"/>
-    <sheet name="E3-Social Media" sheetId="11" r:id="rId4"/>
-    <sheet name="E4-Cloud Services" sheetId="12" r:id="rId5"/>
-    <sheet name="E5-Websites" sheetId="13" r:id="rId6"/>
-    <sheet name="E6-Digital Media (Photo)" sheetId="14" r:id="rId7"/>
-    <sheet name="E7-Digital Media (Audio)" sheetId="15" r:id="rId8"/>
-    <sheet name="E8-Digital Media (Video)" sheetId="16" r:id="rId9"/>
-    <sheet name="E9-Databases" sheetId="17" r:id="rId10"/>
-    <sheet name="E10-Shared Drives" sheetId="18" r:id="rId11"/>
-    <sheet name="E11-Engineering Drawings" sheetId="19" r:id="rId12"/>
+    <sheet name="E(1)-Desktop Applications" sheetId="1" r:id="rId2"/>
+    <sheet name="E(2)-Electronic Messages" sheetId="10" r:id="rId3"/>
+    <sheet name="E(3)-Social Media" sheetId="11" r:id="rId4"/>
+    <sheet name="E(4)-Cloud Services" sheetId="12" r:id="rId5"/>
+    <sheet name="E(5)-Websites" sheetId="13" r:id="rId6"/>
+    <sheet name="E(6)-Digital Media (Photo)" sheetId="14" r:id="rId7"/>
+    <sheet name="E(7)-Digital Media (Audio)" sheetId="15" r:id="rId8"/>
+    <sheet name="E(8)-Digital Media (Video)" sheetId="16" r:id="rId9"/>
+    <sheet name="E(9)-Databases" sheetId="17" r:id="rId10"/>
+    <sheet name="E(10)-Shared Drives" sheetId="18" r:id="rId11"/>
+    <sheet name="E(11)-Engineering Drawings" sheetId="19" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ERM Vendors Master File'!$A$1:$AK$48</definedName>
@@ -828,7 +834,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1170,11 +1176,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text 2" xfId="4"/>
+    <cellStyle name="Explanatory Text 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1250,6 +1256,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1297,7 +1306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1330,9 +1339,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1365,6 +1391,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1540,30 +1583,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.84375" customWidth="1"/>
-    <col min="2" max="2" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.3828125" customWidth="1"/>
-    <col min="26" max="26" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.23046875" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1676,7 +1719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>47</v>
       </c>
@@ -1765,7 +1808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>51</v>
       </c>
@@ -1862,7 +1905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
@@ -1947,7 +1990,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>63</v>
       </c>
@@ -2040,7 +2083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -2135,7 +2178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>240</v>
       </c>
@@ -2222,7 +2265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>72</v>
       </c>
@@ -2317,7 +2360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>76</v>
       </c>
@@ -2408,7 +2451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>77</v>
       </c>
@@ -2497,7 +2540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>78</v>
       </c>
@@ -2588,7 +2631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>80</v>
       </c>
@@ -2667,7 +2710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>82</v>
       </c>
@@ -2766,7 +2809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>83</v>
       </c>
@@ -2857,7 +2900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>245</v>
       </c>
@@ -2948,7 +2991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>84</v>
       </c>
@@ -3027,7 +3070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>85</v>
       </c>
@@ -3116,7 +3159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>86</v>
       </c>
@@ -3211,7 +3254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>252</v>
       </c>
@@ -3308,7 +3351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>87</v>
       </c>
@@ -3389,7 +3432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>88</v>
       </c>
@@ -3480,7 +3523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>89</v>
       </c>
@@ -3571,7 +3614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>235</v>
       </c>
@@ -3660,7 +3703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>91</v>
       </c>
@@ -3749,7 +3792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>92</v>
       </c>
@@ -3836,7 +3879,7 @@
       </c>
       <c r="AK25" s="34"/>
     </row>
-    <row r="26" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>93</v>
       </c>
@@ -3929,7 +3972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>94</v>
       </c>
@@ -4024,7 +4067,7 @@
       </c>
       <c r="AK27" s="34"/>
     </row>
-    <row r="28" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>95</v>
       </c>
@@ -4103,7 +4146,7 @@
       <c r="AJ28" s="34"/>
       <c r="AK28" s="34"/>
     </row>
-    <row r="29" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>96</v>
       </c>
@@ -4190,7 +4233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>97</v>
       </c>
@@ -4285,7 +4328,7 @@
       </c>
       <c r="AK30" s="34"/>
     </row>
-    <row r="31" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>98</v>
       </c>
@@ -4372,7 +4415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>100</v>
       </c>
@@ -4437,7 +4480,7 @@
       <c r="AJ32" s="34"/>
       <c r="AK32" s="34"/>
     </row>
-    <row r="33" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>251</v>
       </c>
@@ -4526,7 +4569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>101</v>
       </c>
@@ -4615,7 +4658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>102</v>
       </c>
@@ -4708,7 +4751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>104</v>
       </c>
@@ -4799,7 +4842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>105</v>
       </c>
@@ -4888,7 +4931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>106</v>
       </c>
@@ -4977,7 +5020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>253</v>
       </c>
@@ -5068,7 +5111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>107</v>
       </c>
@@ -5147,7 +5190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>108</v>
       </c>
@@ -5236,7 +5279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>109</v>
       </c>
@@ -5329,7 +5372,7 @@
       </c>
       <c r="AK42" s="38"/>
     </row>
-    <row r="43" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>110</v>
       </c>
@@ -5428,7 +5471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>111</v>
       </c>
@@ -5519,7 +5562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
         <v>113</v>
       </c>
@@ -5608,7 +5651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>114</v>
       </c>
@@ -5707,7 +5750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>115</v>
       </c>
@@ -5780,7 +5823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
         <v>116</v>
       </c>
@@ -5870,10 +5913,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK48"/>
+  <autoFilter ref="A1:AK48" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5881,19 +5924,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5970,7 +6013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -6023,7 +6066,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -6086,7 +6129,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
@@ -6137,7 +6180,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>63</v>
       </c>
@@ -6194,7 +6237,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -6253,7 +6296,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>72</v>
       </c>
@@ -6312,7 +6355,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>76</v>
       </c>
@@ -6367,7 +6410,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
@@ -6420,7 +6463,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>78</v>
       </c>
@@ -6475,7 +6518,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>82</v>
       </c>
@@ -6538,7 +6581,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>83</v>
       </c>
@@ -6593,7 +6636,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>245</v>
       </c>
@@ -6650,7 +6693,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>84</v>
       </c>
@@ -6707,7 +6750,7 @@
         <v>44534</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>85</v>
       </c>
@@ -6760,7 +6803,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>86</v>
       </c>
@@ -6819,7 +6862,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>87</v>
       </c>
@@ -6874,7 +6917,7 @@
         <v>44165</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>88</v>
       </c>
@@ -6929,7 +6972,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>89</v>
       </c>
@@ -6984,7 +7027,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>235</v>
       </c>
@@ -7037,7 +7080,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>91</v>
       </c>
@@ -7096,7 +7139,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>92</v>
       </c>
@@ -7149,7 +7192,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>93</v>
       </c>
@@ -7206,7 +7249,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>94</v>
       </c>
@@ -7267,7 +7310,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>95</v>
       </c>
@@ -7328,7 +7371,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>96</v>
       </c>
@@ -7383,7 +7426,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>97</v>
       </c>
@@ -7444,7 +7487,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>98</v>
       </c>
@@ -7495,7 +7538,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>101</v>
       </c>
@@ -7548,7 +7591,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>102</v>
       </c>
@@ -7605,7 +7648,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>104</v>
       </c>
@@ -7660,7 +7703,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>105</v>
       </c>
@@ -7713,7 +7756,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>106</v>
       </c>
@@ -7774,7 +7817,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>107</v>
       </c>
@@ -7827,7 +7870,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>108</v>
       </c>
@@ -7880,7 +7923,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>109</v>
       </c>
@@ -7939,7 +7982,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>110</v>
       </c>
@@ -8006,7 +8049,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>111</v>
       </c>
@@ -8061,7 +8104,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>113</v>
       </c>
@@ -8118,7 +8161,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>114</v>
       </c>
@@ -8181,7 +8224,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>116</v>
       </c>
@@ -8234,7 +8277,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>252</v>
       </c>
@@ -8295,7 +8338,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>251</v>
       </c>
@@ -8348,7 +8391,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
         <v>253</v>
       </c>
@@ -8405,27 +8448,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8502,7 +8545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -8555,7 +8598,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -8618,7 +8661,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
@@ -8669,7 +8712,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>63</v>
       </c>
@@ -8726,7 +8769,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -8785,7 +8828,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>240</v>
       </c>
@@ -8840,7 +8883,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>72</v>
       </c>
@@ -8899,7 +8942,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>76</v>
       </c>
@@ -8954,7 +8997,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>77</v>
       </c>
@@ -9007,7 +9050,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>78</v>
       </c>
@@ -9062,7 +9105,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>80</v>
       </c>
@@ -9113,7 +9156,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>82</v>
       </c>
@@ -9176,7 +9219,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>83</v>
       </c>
@@ -9231,7 +9274,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>245</v>
       </c>
@@ -9288,7 +9331,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>85</v>
       </c>
@@ -9341,7 +9384,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>86</v>
       </c>
@@ -9400,7 +9443,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>88</v>
       </c>
@@ -9455,7 +9498,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>89</v>
       </c>
@@ -9510,7 +9553,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>235</v>
       </c>
@@ -9563,7 +9606,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>92</v>
       </c>
@@ -9616,7 +9659,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>93</v>
       </c>
@@ -9673,7 +9716,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>94</v>
       </c>
@@ -9734,7 +9777,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>96</v>
       </c>
@@ -9789,7 +9832,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>97</v>
       </c>
@@ -9850,7 +9893,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>98</v>
       </c>
@@ -9901,7 +9944,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>101</v>
       </c>
@@ -9954,7 +9997,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>102</v>
       </c>
@@ -10011,7 +10054,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>104</v>
       </c>
@@ -10066,7 +10109,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>105</v>
       </c>
@@ -10119,7 +10162,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>106</v>
       </c>
@@ -10180,7 +10223,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>108</v>
       </c>
@@ -10233,7 +10276,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
         <v>109</v>
       </c>
@@ -10292,7 +10335,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>111</v>
       </c>
@@ -10347,7 +10390,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>113</v>
       </c>
@@ -10404,7 +10447,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>114</v>
       </c>
@@ -10467,7 +10510,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>116</v>
       </c>
@@ -10520,7 +10563,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>252</v>
       </c>
@@ -10581,7 +10624,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>251</v>
       </c>
@@ -10634,7 +10677,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>253</v>
       </c>
@@ -10691,27 +10734,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10788,7 +10831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -10841,7 +10884,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -10904,7 +10947,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
@@ -10955,7 +10998,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>63</v>
       </c>
@@ -11012,7 +11055,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -11071,7 +11114,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>240</v>
       </c>
@@ -11126,7 +11169,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>72</v>
       </c>
@@ -11185,7 +11228,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>76</v>
       </c>
@@ -11240,7 +11283,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>77</v>
       </c>
@@ -11293,7 +11336,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>78</v>
       </c>
@@ -11348,7 +11391,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>80</v>
       </c>
@@ -11399,7 +11442,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>82</v>
       </c>
@@ -11462,7 +11505,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>83</v>
       </c>
@@ -11517,7 +11560,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>245</v>
       </c>
@@ -11574,7 +11617,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>84</v>
       </c>
@@ -11631,7 +11674,7 @@
         <v>44534</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>85</v>
       </c>
@@ -11684,7 +11727,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>86</v>
       </c>
@@ -11743,7 +11786,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>87</v>
       </c>
@@ -11798,7 +11841,7 @@
         <v>44165</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>88</v>
       </c>
@@ -11853,7 +11896,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>89</v>
       </c>
@@ -11908,7 +11951,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>235</v>
       </c>
@@ -11961,7 +12004,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>91</v>
       </c>
@@ -12020,7 +12063,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>93</v>
       </c>
@@ -12077,7 +12120,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>96</v>
       </c>
@@ -12132,7 +12175,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>98</v>
       </c>
@@ -12183,7 +12226,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>101</v>
       </c>
@@ -12236,7 +12279,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>102</v>
       </c>
@@ -12293,7 +12336,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>104</v>
       </c>
@@ -12348,7 +12391,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>105</v>
       </c>
@@ -12401,7 +12444,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>106</v>
       </c>
@@ -12462,7 +12505,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>107</v>
       </c>
@@ -12515,7 +12558,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>108</v>
       </c>
@@ -12568,7 +12611,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>110</v>
       </c>
@@ -12635,7 +12678,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>111</v>
       </c>
@@ -12690,7 +12733,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>113</v>
       </c>
@@ -12747,7 +12790,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>114</v>
       </c>
@@ -12810,7 +12853,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>115</v>
       </c>
@@ -12865,7 +12908,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>116</v>
       </c>
@@ -12918,7 +12961,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>252</v>
       </c>
@@ -12979,7 +13022,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>251</v>
       </c>
@@ -13032,7 +13075,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>253</v>
       </c>
@@ -13089,47 +13132,47 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.23046875" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.23046875" customWidth="1"/>
-    <col min="4" max="4" width="4.765625" customWidth="1"/>
-    <col min="5" max="5" width="11.53515625" customWidth="1"/>
-    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.15234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.4609375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.4609375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.3046875" customWidth="1"/>
-    <col min="11" max="11" width="6.69140625" customWidth="1"/>
-    <col min="12" max="12" width="8.07421875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.69140625" customWidth="1"/>
-    <col min="14" max="14" width="3.4609375" customWidth="1"/>
-    <col min="15" max="15" width="3.765625" customWidth="1"/>
-    <col min="16" max="16" width="6.69140625" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" customWidth="1"/>
+    <col min="14" max="14" width="3.44140625" customWidth="1"/>
+    <col min="15" max="15" width="3.77734375" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
     <col min="18" max="24" width="4" customWidth="1"/>
-    <col min="25" max="27" width="8.3046875" customWidth="1"/>
-    <col min="28" max="28" width="2.3046875" customWidth="1"/>
-    <col min="29" max="1031" width="8.3046875" customWidth="1"/>
+    <col min="25" max="27" width="8.33203125" customWidth="1"/>
+    <col min="28" max="28" width="2.33203125" customWidth="1"/>
+    <col min="29" max="1031" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13211,7 +13254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>47</v>
       </c>
@@ -13264,7 +13307,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>51</v>
       </c>
@@ -13327,7 +13370,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
@@ -13378,7 +13421,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>63</v>
       </c>
@@ -13435,7 +13478,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -13494,7 +13537,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>240</v>
       </c>
@@ -13549,7 +13592,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>72</v>
       </c>
@@ -13608,7 +13651,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>76</v>
       </c>
@@ -13663,7 +13706,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>77</v>
       </c>
@@ -13716,7 +13759,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>78</v>
       </c>
@@ -13771,7 +13814,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>82</v>
       </c>
@@ -13834,7 +13877,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>83</v>
       </c>
@@ -13889,7 +13932,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>245</v>
       </c>
@@ -13946,7 +13989,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>84</v>
       </c>
@@ -14003,7 +14046,7 @@
         <v>44534</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>85</v>
       </c>
@@ -14056,7 +14099,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>86</v>
       </c>
@@ -14115,7 +14158,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>88</v>
       </c>
@@ -14170,7 +14213,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>89</v>
       </c>
@@ -14225,7 +14268,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>235</v>
       </c>
@@ -14278,7 +14321,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>91</v>
       </c>
@@ -14337,7 +14380,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>92</v>
       </c>
@@ -14390,7 +14433,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>93</v>
       </c>
@@ -14447,7 +14490,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>94</v>
       </c>
@@ -14508,7 +14551,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>96</v>
       </c>
@@ -14563,7 +14606,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>97</v>
       </c>
@@ -14624,7 +14667,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>98</v>
       </c>
@@ -14675,7 +14718,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>101</v>
       </c>
@@ -14728,7 +14771,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>102</v>
       </c>
@@ -14785,7 +14828,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>104</v>
       </c>
@@ -14840,7 +14883,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>105</v>
       </c>
@@ -14893,7 +14936,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>106</v>
       </c>
@@ -14954,7 +14997,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>107</v>
       </c>
@@ -15007,7 +15050,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>108</v>
       </c>
@@ -15060,7 +15103,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>109</v>
       </c>
@@ -15119,7 +15162,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>110</v>
       </c>
@@ -15186,7 +15229,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>111</v>
       </c>
@@ -15241,7 +15284,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>113</v>
       </c>
@@ -15298,7 +15341,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>114</v>
       </c>
@@ -15361,7 +15404,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>116</v>
       </c>
@@ -15414,7 +15457,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>252</v>
       </c>
@@ -15475,7 +15518,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>251</v>
       </c>
@@ -15528,7 +15571,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>253</v>
       </c>
@@ -15585,8 +15628,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -15594,39 +15637,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.23046875" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.23046875" customWidth="1"/>
-    <col min="4" max="4" width="4.765625" customWidth="1"/>
-    <col min="5" max="5" width="11.53515625" customWidth="1"/>
-    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.765625" customWidth="1"/>
-    <col min="8" max="8" width="6.07421875" customWidth="1"/>
-    <col min="9" max="9" width="5.3046875" customWidth="1"/>
-    <col min="10" max="10" width="3.3046875" customWidth="1"/>
-    <col min="11" max="11" width="6.69140625" customWidth="1"/>
-    <col min="12" max="12" width="7.15234375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.69140625" customWidth="1"/>
-    <col min="14" max="14" width="3.4609375" customWidth="1"/>
-    <col min="15" max="15" width="3.765625" customWidth="1"/>
-    <col min="16" max="16" width="6.69140625" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" customWidth="1"/>
+    <col min="14" max="14" width="3.44140625" customWidth="1"/>
+    <col min="15" max="15" width="3.77734375" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
     <col min="18" max="24" width="4" customWidth="1"/>
-    <col min="25" max="27" width="8.3046875" customWidth="1"/>
-    <col min="28" max="28" width="2.3046875" customWidth="1"/>
-    <col min="29" max="1031" width="8.3046875" customWidth="1"/>
+    <col min="25" max="27" width="8.33203125" customWidth="1"/>
+    <col min="28" max="28" width="2.33203125" customWidth="1"/>
+    <col min="29" max="1031" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15708,7 +15751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -15761,7 +15804,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -15824,7 +15867,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
@@ -15875,7 +15918,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>63</v>
       </c>
@@ -15932,7 +15975,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -15991,7 +16034,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>240</v>
       </c>
@@ -16046,7 +16089,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>72</v>
       </c>
@@ -16105,7 +16148,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>76</v>
       </c>
@@ -16160,7 +16203,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>77</v>
       </c>
@@ -16213,7 +16256,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>78</v>
       </c>
@@ -16268,7 +16311,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>80</v>
       </c>
@@ -16319,7 +16362,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>82</v>
       </c>
@@ -16382,7 +16425,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>83</v>
       </c>
@@ -16437,7 +16480,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>245</v>
       </c>
@@ -16494,7 +16537,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>84</v>
       </c>
@@ -16551,7 +16594,7 @@
         <v>44534</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>85</v>
       </c>
@@ -16604,7 +16647,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>86</v>
       </c>
@@ -16663,7 +16706,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>87</v>
       </c>
@@ -16718,7 +16761,7 @@
         <v>44165</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>88</v>
       </c>
@@ -16773,7 +16816,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>89</v>
       </c>
@@ -16828,7 +16871,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>235</v>
       </c>
@@ -16881,7 +16924,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>91</v>
       </c>
@@ -16940,7 +16983,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>92</v>
       </c>
@@ -16993,7 +17036,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>93</v>
       </c>
@@ -17050,7 +17093,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>94</v>
       </c>
@@ -17111,7 +17154,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>97</v>
       </c>
@@ -17172,7 +17215,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>98</v>
       </c>
@@ -17223,7 +17266,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>101</v>
       </c>
@@ -17276,7 +17319,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>102</v>
       </c>
@@ -17333,7 +17376,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>104</v>
       </c>
@@ -17388,7 +17431,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>105</v>
       </c>
@@ -17441,7 +17484,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>106</v>
       </c>
@@ -17502,7 +17545,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>108</v>
       </c>
@@ -17555,7 +17598,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>109</v>
       </c>
@@ -17614,7 +17657,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>111</v>
       </c>
@@ -17669,7 +17712,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>113</v>
       </c>
@@ -17726,7 +17769,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>114</v>
       </c>
@@ -17789,7 +17832,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>116</v>
       </c>
@@ -17842,7 +17885,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>252</v>
       </c>
@@ -17903,7 +17946,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>251</v>
       </c>
@@ -17956,7 +17999,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>253</v>
       </c>
@@ -18013,8 +18056,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -18022,39 +18065,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.23046875" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.23046875" customWidth="1"/>
-    <col min="4" max="4" width="4.765625" customWidth="1"/>
-    <col min="5" max="5" width="11.53515625" customWidth="1"/>
-    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.765625" customWidth="1"/>
-    <col min="8" max="8" width="6.07421875" customWidth="1"/>
-    <col min="9" max="9" width="5.3046875" customWidth="1"/>
-    <col min="10" max="10" width="3.3046875" customWidth="1"/>
-    <col min="11" max="11" width="6.69140625" customWidth="1"/>
-    <col min="12" max="12" width="4.69140625" customWidth="1"/>
-    <col min="13" max="13" width="3.69140625" customWidth="1"/>
-    <col min="14" max="14" width="3.4609375" customWidth="1"/>
-    <col min="15" max="15" width="3.765625" customWidth="1"/>
-    <col min="16" max="16" width="6.69140625" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" customWidth="1"/>
+    <col min="14" max="14" width="3.44140625" customWidth="1"/>
+    <col min="15" max="15" width="3.77734375" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
     <col min="18" max="24" width="4" customWidth="1"/>
-    <col min="25" max="27" width="8.3046875" customWidth="1"/>
-    <col min="28" max="28" width="2.3046875" customWidth="1"/>
-    <col min="29" max="1031" width="8.3046875" customWidth="1"/>
+    <col min="25" max="27" width="8.33203125" customWidth="1"/>
+    <col min="28" max="28" width="2.33203125" customWidth="1"/>
+    <col min="29" max="1031" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18136,7 +18179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>47</v>
       </c>
@@ -18189,7 +18232,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>63</v>
       </c>
@@ -18246,7 +18289,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>68</v>
       </c>
@@ -18305,7 +18348,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>240</v>
       </c>
@@ -18360,7 +18403,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>72</v>
       </c>
@@ -18419,7 +18462,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>76</v>
       </c>
@@ -18474,7 +18517,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>77</v>
       </c>
@@ -18527,7 +18570,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>78</v>
       </c>
@@ -18582,7 +18625,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>80</v>
       </c>
@@ -18633,7 +18676,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>82</v>
       </c>
@@ -18696,7 +18739,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>83</v>
       </c>
@@ -18751,7 +18794,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>245</v>
       </c>
@@ -18808,7 +18851,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>85</v>
       </c>
@@ -18861,7 +18904,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>86</v>
       </c>
@@ -18920,7 +18963,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>88</v>
       </c>
@@ -18975,7 +19018,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>89</v>
       </c>
@@ -19030,7 +19073,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>235</v>
       </c>
@@ -19083,7 +19126,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>91</v>
       </c>
@@ -19142,7 +19185,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>92</v>
       </c>
@@ -19195,7 +19238,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>93</v>
       </c>
@@ -19252,7 +19295,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>94</v>
       </c>
@@ -19313,7 +19356,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>97</v>
       </c>
@@ -19374,7 +19417,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>98</v>
       </c>
@@ -19425,7 +19468,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>101</v>
       </c>
@@ -19478,7 +19521,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>102</v>
       </c>
@@ -19535,7 +19578,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>104</v>
       </c>
@@ -19590,7 +19633,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>105</v>
       </c>
@@ -19643,7 +19686,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>108</v>
       </c>
@@ -19696,7 +19739,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
         <v>109</v>
       </c>
@@ -19755,7 +19798,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>110</v>
       </c>
@@ -19822,7 +19865,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>111</v>
       </c>
@@ -19877,7 +19920,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>114</v>
       </c>
@@ -19940,7 +19983,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>116</v>
       </c>
@@ -19993,7 +20036,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>252</v>
       </c>
@@ -20054,7 +20097,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>251</v>
       </c>
@@ -20107,7 +20150,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>253</v>
       </c>
@@ -20169,39 +20212,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.23046875" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.23046875" customWidth="1"/>
-    <col min="4" max="4" width="4.765625" customWidth="1"/>
-    <col min="5" max="5" width="11.53515625" customWidth="1"/>
-    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.765625" customWidth="1"/>
-    <col min="8" max="8" width="6.07421875" customWidth="1"/>
-    <col min="9" max="9" width="5.3046875" customWidth="1"/>
-    <col min="10" max="10" width="3.3046875" customWidth="1"/>
-    <col min="11" max="11" width="6.69140625" customWidth="1"/>
-    <col min="12" max="12" width="8.07421875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.69140625" customWidth="1"/>
-    <col min="14" max="14" width="3.4609375" customWidth="1"/>
-    <col min="15" max="15" width="3.765625" customWidth="1"/>
-    <col min="16" max="16" width="6.69140625" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" customWidth="1"/>
+    <col min="14" max="14" width="3.44140625" customWidth="1"/>
+    <col min="15" max="15" width="3.77734375" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
     <col min="18" max="24" width="4" customWidth="1"/>
-    <col min="25" max="27" width="8.3046875" customWidth="1"/>
-    <col min="28" max="28" width="2.3046875" customWidth="1"/>
-    <col min="29" max="1031" width="8.3046875" customWidth="1"/>
+    <col min="25" max="27" width="8.33203125" customWidth="1"/>
+    <col min="28" max="28" width="2.33203125" customWidth="1"/>
+    <col min="29" max="1031" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20283,7 +20326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>47</v>
       </c>
@@ -20336,7 +20379,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>51</v>
       </c>
@@ -20399,7 +20442,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
@@ -20450,7 +20493,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>63</v>
       </c>
@@ -20507,7 +20550,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -20566,7 +20609,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>240</v>
       </c>
@@ -20621,7 +20664,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>72</v>
       </c>
@@ -20680,7 +20723,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>76</v>
       </c>
@@ -20735,7 +20778,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>77</v>
       </c>
@@ -20788,7 +20831,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>78</v>
       </c>
@@ -20843,7 +20886,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>82</v>
       </c>
@@ -20906,7 +20949,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>83</v>
       </c>
@@ -20961,7 +21004,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>245</v>
       </c>
@@ -21018,7 +21061,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>85</v>
       </c>
@@ -21071,7 +21114,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>86</v>
       </c>
@@ -21130,7 +21173,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>87</v>
       </c>
@@ -21185,7 +21228,7 @@
         <v>44165</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>88</v>
       </c>
@@ -21240,7 +21283,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>89</v>
       </c>
@@ -21295,7 +21338,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>235</v>
       </c>
@@ -21348,7 +21391,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>91</v>
       </c>
@@ -21407,7 +21450,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>92</v>
       </c>
@@ -21460,7 +21503,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>93</v>
       </c>
@@ -21517,7 +21560,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>94</v>
       </c>
@@ -21578,7 +21621,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>95</v>
       </c>
@@ -21639,7 +21682,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>96</v>
       </c>
@@ -21694,7 +21737,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>97</v>
       </c>
@@ -21755,7 +21798,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>98</v>
       </c>
@@ -21806,7 +21849,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>101</v>
       </c>
@@ -21859,7 +21902,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>102</v>
       </c>
@@ -21916,7 +21959,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>104</v>
       </c>
@@ -21971,7 +22014,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>105</v>
       </c>
@@ -22024,7 +22067,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>106</v>
       </c>
@@ -22085,7 +22128,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>108</v>
       </c>
@@ -22138,7 +22181,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>109</v>
       </c>
@@ -22197,7 +22240,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>110</v>
       </c>
@@ -22264,7 +22307,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>111</v>
       </c>
@@ -22319,7 +22362,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>113</v>
       </c>
@@ -22376,7 +22419,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>114</v>
       </c>
@@ -22439,7 +22482,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>116</v>
       </c>
@@ -22492,7 +22535,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>252</v>
       </c>
@@ -22553,7 +22596,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>251</v>
       </c>
@@ -22606,7 +22649,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>253</v>
       </c>
@@ -22663,8 +22706,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -22672,39 +22715,39 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.23046875" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.23046875" customWidth="1"/>
-    <col min="4" max="4" width="4.765625" customWidth="1"/>
-    <col min="5" max="5" width="11.53515625" customWidth="1"/>
-    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.765625" customWidth="1"/>
-    <col min="8" max="8" width="6.07421875" customWidth="1"/>
-    <col min="9" max="9" width="5.3046875" customWidth="1"/>
-    <col min="10" max="10" width="3.3046875" customWidth="1"/>
-    <col min="11" max="11" width="6.69140625" customWidth="1"/>
-    <col min="12" max="12" width="4.69140625" customWidth="1"/>
-    <col min="13" max="13" width="3.69140625" customWidth="1"/>
-    <col min="14" max="14" width="3.4609375" customWidth="1"/>
-    <col min="15" max="15" width="3.765625" customWidth="1"/>
-    <col min="16" max="16" width="6.69140625" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" customWidth="1"/>
+    <col min="14" max="14" width="3.44140625" customWidth="1"/>
+    <col min="15" max="15" width="3.77734375" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
     <col min="18" max="24" width="4" customWidth="1"/>
-    <col min="25" max="27" width="8.3046875" customWidth="1"/>
-    <col min="28" max="28" width="2.3046875" customWidth="1"/>
-    <col min="29" max="1031" width="8.3046875" customWidth="1"/>
+    <col min="25" max="27" width="8.33203125" customWidth="1"/>
+    <col min="28" max="28" width="2.33203125" customWidth="1"/>
+    <col min="29" max="1031" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22786,7 +22829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -22839,7 +22882,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -22902,7 +22945,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
@@ -22953,7 +22996,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>63</v>
       </c>
@@ -23010,7 +23053,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -23069,7 +23112,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>72</v>
       </c>
@@ -23128,7 +23171,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>76</v>
       </c>
@@ -23183,7 +23226,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
@@ -23236,7 +23279,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>78</v>
       </c>
@@ -23291,7 +23334,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>82</v>
       </c>
@@ -23354,7 +23397,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>83</v>
       </c>
@@ -23409,7 +23452,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>85</v>
       </c>
@@ -23462,7 +23505,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>86</v>
       </c>
@@ -23521,7 +23564,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>87</v>
       </c>
@@ -23576,7 +23619,7 @@
         <v>44165</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>88</v>
       </c>
@@ -23631,7 +23674,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>89</v>
       </c>
@@ -23686,7 +23729,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>235</v>
       </c>
@@ -23739,7 +23782,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>91</v>
       </c>
@@ -23798,7 +23841,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>92</v>
       </c>
@@ -23851,7 +23894,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>93</v>
       </c>
@@ -23908,7 +23951,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>94</v>
       </c>
@@ -23969,7 +24012,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>96</v>
       </c>
@@ -24024,7 +24067,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>97</v>
       </c>
@@ -24085,7 +24128,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>98</v>
       </c>
@@ -24136,7 +24179,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>101</v>
       </c>
@@ -24189,7 +24232,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>102</v>
       </c>
@@ -24246,7 +24289,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>104</v>
       </c>
@@ -24301,7 +24344,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>105</v>
       </c>
@@ -24354,7 +24397,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>108</v>
       </c>
@@ -24407,7 +24450,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>109</v>
       </c>
@@ -24466,7 +24509,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>110</v>
       </c>
@@ -24533,7 +24576,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>111</v>
       </c>
@@ -24588,7 +24631,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>114</v>
       </c>
@@ -24651,7 +24694,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>116</v>
       </c>
@@ -24704,7 +24747,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>252</v>
       </c>
@@ -24765,7 +24808,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>251</v>
       </c>
@@ -24818,7 +24861,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>253</v>
       </c>
@@ -24875,8 +24918,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -24884,20 +24927,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24974,7 +25017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -25027,7 +25070,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -25090,7 +25133,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
@@ -25141,7 +25184,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>63</v>
       </c>
@@ -25198,7 +25241,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -25257,7 +25300,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>240</v>
       </c>
@@ -25312,7 +25355,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>72</v>
       </c>
@@ -25371,7 +25414,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>76</v>
       </c>
@@ -25426,7 +25469,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>77</v>
       </c>
@@ -25479,7 +25522,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>78</v>
       </c>
@@ -25534,7 +25577,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>80</v>
       </c>
@@ -25585,7 +25628,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>82</v>
       </c>
@@ -25648,7 +25691,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>83</v>
       </c>
@@ -25703,7 +25746,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>245</v>
       </c>
@@ -25760,7 +25803,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>85</v>
       </c>
@@ -25813,7 +25856,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>86</v>
       </c>
@@ -25872,7 +25915,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>87</v>
       </c>
@@ -25927,7 +25970,7 @@
         <v>44165</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>88</v>
       </c>
@@ -25982,7 +26025,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>89</v>
       </c>
@@ -26037,7 +26080,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>235</v>
       </c>
@@ -26090,7 +26133,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>91</v>
       </c>
@@ -26149,7 +26192,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>92</v>
       </c>
@@ -26202,7 +26245,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>93</v>
       </c>
@@ -26259,7 +26302,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>94</v>
       </c>
@@ -26320,7 +26363,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>96</v>
       </c>
@@ -26375,7 +26418,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>97</v>
       </c>
@@ -26436,7 +26479,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>98</v>
       </c>
@@ -26487,7 +26530,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>101</v>
       </c>
@@ -26540,7 +26583,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>102</v>
       </c>
@@ -26597,7 +26640,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>104</v>
       </c>
@@ -26652,7 +26695,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>105</v>
       </c>
@@ -26705,7 +26748,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>106</v>
       </c>
@@ -26766,7 +26809,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>107</v>
       </c>
@@ -26819,7 +26862,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>108</v>
       </c>
@@ -26872,7 +26915,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>109</v>
       </c>
@@ -26931,7 +26974,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>110</v>
       </c>
@@ -26998,7 +27041,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>111</v>
       </c>
@@ -27053,7 +27096,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>113</v>
       </c>
@@ -27110,7 +27153,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>114</v>
       </c>
@@ -27173,7 +27216,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>115</v>
       </c>
@@ -27228,7 +27271,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>116</v>
       </c>
@@ -27281,7 +27324,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>252</v>
       </c>
@@ -27342,7 +27385,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
         <v>251</v>
       </c>
@@ -27395,7 +27438,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
         <v>253</v>
       </c>
@@ -27452,27 +27495,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27549,7 +27592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -27602,7 +27645,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -27665,7 +27708,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
@@ -27716,7 +27759,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>63</v>
       </c>
@@ -27773,7 +27816,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -27832,7 +27875,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>240</v>
       </c>
@@ -27887,7 +27930,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>72</v>
       </c>
@@ -27946,7 +27989,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>76</v>
       </c>
@@ -28001,7 +28044,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>77</v>
       </c>
@@ -28054,7 +28097,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>78</v>
       </c>
@@ -28109,7 +28152,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>80</v>
       </c>
@@ -28160,7 +28203,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>82</v>
       </c>
@@ -28223,7 +28266,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>83</v>
       </c>
@@ -28278,7 +28321,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>245</v>
       </c>
@@ -28335,7 +28378,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>85</v>
       </c>
@@ -28388,7 +28431,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>86</v>
       </c>
@@ -28447,7 +28490,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>88</v>
       </c>
@@ -28502,7 +28545,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>89</v>
       </c>
@@ -28557,7 +28600,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>235</v>
       </c>
@@ -28610,7 +28653,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>92</v>
       </c>
@@ -28663,7 +28706,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>93</v>
       </c>
@@ -28720,7 +28763,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>94</v>
       </c>
@@ -28781,7 +28824,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>96</v>
       </c>
@@ -28836,7 +28879,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>97</v>
       </c>
@@ -28897,7 +28940,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>98</v>
       </c>
@@ -28948,7 +28991,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>101</v>
       </c>
@@ -29001,7 +29044,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>102</v>
       </c>
@@ -29058,7 +29101,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>104</v>
       </c>
@@ -29113,7 +29156,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>105</v>
       </c>
@@ -29166,7 +29209,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>107</v>
       </c>
@@ -29219,7 +29262,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>108</v>
       </c>
@@ -29272,7 +29315,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
         <v>109</v>
       </c>
@@ -29331,7 +29374,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>110</v>
       </c>
@@ -29398,7 +29441,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>111</v>
       </c>
@@ -29453,7 +29496,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>113</v>
       </c>
@@ -29510,7 +29553,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>114</v>
       </c>
@@ -29573,7 +29616,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>116</v>
       </c>
@@ -29626,7 +29669,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>252</v>
       </c>
@@ -29687,7 +29730,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>251</v>
       </c>
@@ -29740,7 +29783,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>253</v>
       </c>
@@ -29797,27 +29840,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29894,7 +29937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -29947,7 +29990,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -30010,7 +30053,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
@@ -30061,7 +30104,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>63</v>
       </c>
@@ -30118,7 +30161,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -30177,7 +30220,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>240</v>
       </c>
@@ -30232,7 +30275,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>72</v>
       </c>
@@ -30291,7 +30334,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>76</v>
       </c>
@@ -30346,7 +30389,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>77</v>
       </c>
@@ -30399,7 +30442,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>78</v>
       </c>
@@ -30454,7 +30497,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>80</v>
       </c>
@@ -30505,7 +30548,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>82</v>
       </c>
@@ -30568,7 +30611,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>83</v>
       </c>
@@ -30623,7 +30666,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>245</v>
       </c>
@@ -30680,7 +30723,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>85</v>
       </c>
@@ -30733,7 +30776,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>86</v>
       </c>
@@ -30792,7 +30835,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>88</v>
       </c>
@@ -30847,7 +30890,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>89</v>
       </c>
@@ -30902,7 +30945,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>235</v>
       </c>
@@ -30955,7 +30998,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>92</v>
       </c>
@@ -31008,7 +31051,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>93</v>
       </c>
@@ -31065,7 +31108,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>94</v>
       </c>
@@ -31126,7 +31169,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>96</v>
       </c>
@@ -31181,7 +31224,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>97</v>
       </c>
@@ -31242,7 +31285,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>98</v>
       </c>
@@ -31293,7 +31336,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>101</v>
       </c>
@@ -31346,7 +31389,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>102</v>
       </c>
@@ -31403,7 +31446,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>104</v>
       </c>
@@ -31458,7 +31501,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>105</v>
       </c>
@@ -31511,7 +31554,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>107</v>
       </c>
@@ -31564,7 +31607,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>108</v>
       </c>
@@ -31617,7 +31660,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
         <v>109</v>
       </c>
@@ -31676,7 +31719,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>110</v>
       </c>
@@ -31743,7 +31786,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>111</v>
       </c>
@@ -31798,7 +31841,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>113</v>
       </c>
@@ -31855,7 +31898,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>114</v>
       </c>
@@ -31918,7 +31961,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>116</v>
       </c>
@@ -31971,7 +32014,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>252</v>
       </c>
@@ -32032,7 +32075,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>251</v>
       </c>
@@ -32085,7 +32128,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>253</v>
       </c>
@@ -32142,8 +32185,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/data/pools/erm.xlsx
+++ b/app/data/pools/erm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7410" tabRatio="674"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7410" tabRatio="674" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ERM Vendors Master File" sheetId="20" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7640" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7650" uniqueCount="293">
   <si>
     <t>ContractorName</t>
   </si>
@@ -906,6 +906,9 @@
   <si>
     <t>47QSMA19D08R6</t>
   </si>
+  <si>
+    <t>086512134 </t>
+  </si>
 </sst>
 </file>
 
@@ -1748,25 +1751,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.84375" customWidth="1"/>
+    <col min="2" max="2" width="12.3046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.69140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.33203125" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.21875" customWidth="1"/>
+    <col min="25" max="25" width="10.3046875" customWidth="1"/>
+    <col min="26" max="26" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1879,7 +1884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>47</v>
       </c>
@@ -1968,7 +1973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>51</v>
       </c>
@@ -2065,7 +2070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
@@ -2150,7 +2155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>63</v>
       </c>
@@ -2243,7 +2248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -2338,7 +2343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>268</v>
       </c>
@@ -2435,7 +2440,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>240</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>72</v>
       </c>
@@ -2617,7 +2622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>76</v>
       </c>
@@ -2708,7 +2713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>77</v>
       </c>
@@ -2797,7 +2802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>78</v>
       </c>
@@ -2888,7 +2893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>80</v>
       </c>
@@ -2967,7 +2972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>82</v>
       </c>
@@ -3066,7 +3071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>265</v>
       </c>
@@ -3145,13 +3150,15 @@
       <c r="AJ15" s="32"/>
       <c r="AK15" s="32"/>
     </row>
-    <row r="16" spans="1:37" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="46" t="s">
         <v>281</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="D16" s="44" t="s">
         <v>282</v>
@@ -3234,7 +3241,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>83</v>
       </c>
@@ -3325,7 +3332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>245</v>
       </c>
@@ -3416,7 +3423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>84</v>
       </c>
@@ -3495,7 +3502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>85</v>
       </c>
@@ -3584,7 +3591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>86</v>
       </c>
@@ -3679,7 +3686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>252</v>
       </c>
@@ -3776,7 +3783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>87</v>
       </c>
@@ -3857,7 +3864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>88</v>
       </c>
@@ -3948,7 +3955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>89</v>
       </c>
@@ -4039,7 +4046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>235</v>
       </c>
@@ -4128,7 +4135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>91</v>
       </c>
@@ -4217,7 +4224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>92</v>
       </c>
@@ -4304,7 +4311,7 @@
       </c>
       <c r="AK28" s="34"/>
     </row>
-    <row r="29" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>93</v>
       </c>
@@ -4397,7 +4404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>94</v>
       </c>
@@ -4492,7 +4499,7 @@
       </c>
       <c r="AK30" s="34"/>
     </row>
-    <row r="31" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>95</v>
       </c>
@@ -4571,7 +4578,7 @@
       <c r="AJ31" s="34"/>
       <c r="AK31" s="34"/>
     </row>
-    <row r="32" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>96</v>
       </c>
@@ -4658,7 +4665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>97</v>
       </c>
@@ -4753,7 +4760,7 @@
       </c>
       <c r="AK33" s="34"/>
     </row>
-    <row r="34" spans="1:37" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>98</v>
       </c>
@@ -4840,7 +4847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>100</v>
       </c>
@@ -4905,7 +4912,7 @@
       <c r="AJ35" s="34"/>
       <c r="AK35" s="34"/>
     </row>
-    <row r="36" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>251</v>
       </c>
@@ -4994,7 +5001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>101</v>
       </c>
@@ -5083,7 +5090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>102</v>
       </c>
@@ -5176,7 +5183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
         <v>104</v>
       </c>
@@ -5267,7 +5274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
         <v>105</v>
       </c>
@@ -5356,7 +5363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>106</v>
       </c>
@@ -5445,7 +5452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>253</v>
       </c>
@@ -5536,7 +5543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
         <v>107</v>
       </c>
@@ -5615,7 +5622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>108</v>
       </c>
@@ -5704,7 +5711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="24" t="s">
         <v>109</v>
       </c>
@@ -5797,7 +5804,7 @@
       </c>
       <c r="AK45" s="38"/>
     </row>
-    <row r="46" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>110</v>
       </c>
@@ -5896,7 +5903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
         <v>111</v>
       </c>
@@ -5987,7 +5994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="45" t="s">
         <v>267</v>
       </c>
@@ -6084,7 +6091,7 @@
       </c>
       <c r="AK48" s="33"/>
     </row>
-    <row r="49" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
         <v>113</v>
       </c>
@@ -6173,7 +6180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
         <v>114</v>
       </c>
@@ -6272,7 +6279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
         <v>115</v>
       </c>
@@ -6345,7 +6352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
         <v>116</v>
       </c>
@@ -6452,14 +6459,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6536,7 +6545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -6589,7 +6598,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -6652,7 +6661,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
@@ -6703,7 +6712,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>63</v>
       </c>
@@ -6760,7 +6769,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -6819,7 +6828,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>268</v>
       </c>
@@ -6880,7 +6889,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>72</v>
       </c>
@@ -6939,7 +6948,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>76</v>
       </c>
@@ -6994,7 +7003,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>77</v>
       </c>
@@ -7047,7 +7056,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>78</v>
       </c>
@@ -7102,7 +7111,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>82</v>
       </c>
@@ -7165,7 +7174,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
         <v>265</v>
       </c>
@@ -7220,13 +7229,15 @@
         <v>45516</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46" t="s">
+      <c r="B14" s="46" t="s">
         <v>281</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="D14" s="44" t="s">
         <v>282</v>
@@ -7277,7 +7288,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>83</v>
       </c>
@@ -7332,7 +7343,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>245</v>
       </c>
@@ -7389,7 +7400,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>84</v>
       </c>
@@ -7446,7 +7457,7 @@
         <v>44534</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>85</v>
       </c>
@@ -7499,7 +7510,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>86</v>
       </c>
@@ -7558,7 +7569,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>252</v>
       </c>
@@ -7619,7 +7630,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>87</v>
       </c>
@@ -7674,7 +7685,7 @@
         <v>44165</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>88</v>
       </c>
@@ -7729,7 +7740,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>89</v>
       </c>
@@ -7784,7 +7795,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>235</v>
       </c>
@@ -7837,7 +7848,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>91</v>
       </c>
@@ -7896,7 +7907,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>92</v>
       </c>
@@ -7949,7 +7960,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>93</v>
       </c>
@@ -8006,7 +8017,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>94</v>
       </c>
@@ -8067,7 +8078,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>95</v>
       </c>
@@ -8128,7 +8139,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>96</v>
       </c>
@@ -8183,7 +8194,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>97</v>
       </c>
@@ -8244,7 +8255,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>98</v>
       </c>
@@ -8295,7 +8306,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>251</v>
       </c>
@@ -8348,7 +8359,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>101</v>
       </c>
@@ -8401,7 +8412,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
         <v>102</v>
       </c>
@@ -8458,7 +8469,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
         <v>104</v>
       </c>
@@ -8513,7 +8524,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>105</v>
       </c>
@@ -8566,7 +8577,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>106</v>
       </c>
@@ -8627,7 +8638,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>253</v>
       </c>
@@ -8682,7 +8693,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
         <v>107</v>
       </c>
@@ -8735,7 +8746,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>108</v>
       </c>
@@ -8788,7 +8799,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
         <v>109</v>
       </c>
@@ -8847,7 +8858,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>110</v>
       </c>
@@ -8914,7 +8925,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="19" t="s">
         <v>111</v>
       </c>
@@ -8969,7 +8980,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="45" t="s">
         <v>267</v>
       </c>
@@ -9032,7 +9043,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>113</v>
       </c>
@@ -9089,7 +9100,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
         <v>114</v>
       </c>
@@ -9152,7 +9163,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>116</v>
       </c>
@@ -9223,12 +9234,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9305,7 +9316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -9358,7 +9369,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -9421,7 +9432,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
@@ -9472,7 +9483,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>63</v>
       </c>
@@ -9529,7 +9540,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -9588,7 +9599,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>268</v>
       </c>
@@ -9649,7 +9660,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>240</v>
       </c>
@@ -9704,7 +9715,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>72</v>
       </c>
@@ -9763,7 +9774,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>76</v>
       </c>
@@ -9818,7 +9829,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>77</v>
       </c>
@@ -9871,7 +9882,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>78</v>
       </c>
@@ -9926,7 +9937,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>80</v>
       </c>
@@ -9977,7 +9988,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>82</v>
       </c>
@@ -10040,7 +10051,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>83</v>
       </c>
@@ -10095,7 +10106,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>245</v>
       </c>
@@ -10152,7 +10163,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>85</v>
       </c>
@@ -10205,7 +10216,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>86</v>
       </c>
@@ -10264,7 +10275,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>252</v>
       </c>
@@ -10325,7 +10336,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>88</v>
       </c>
@@ -10380,7 +10391,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>89</v>
       </c>
@@ -10435,7 +10446,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>235</v>
       </c>
@@ -10488,7 +10499,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>92</v>
       </c>
@@ -10541,7 +10552,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>93</v>
       </c>
@@ -10598,7 +10609,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>94</v>
       </c>
@@ -10659,7 +10670,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>96</v>
       </c>
@@ -10714,7 +10725,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>97</v>
       </c>
@@ -10775,7 +10786,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>98</v>
       </c>
@@ -10826,7 +10837,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>251</v>
       </c>
@@ -10879,7 +10890,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>101</v>
       </c>
@@ -10932,7 +10943,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
         <v>102</v>
       </c>
@@ -10989,7 +11000,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>104</v>
       </c>
@@ -11044,7 +11055,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>105</v>
       </c>
@@ -11097,7 +11108,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>106</v>
       </c>
@@ -11158,7 +11169,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>253</v>
       </c>
@@ -11213,7 +11224,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>108</v>
       </c>
@@ -11266,7 +11277,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
         <v>109</v>
       </c>
@@ -11325,7 +11336,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>111</v>
       </c>
@@ -11380,7 +11391,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="45" t="s">
         <v>267</v>
       </c>
@@ -11443,7 +11454,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>113</v>
       </c>
@@ -11500,7 +11511,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>114</v>
       </c>
@@ -11563,7 +11574,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>116</v>
       </c>
@@ -11632,14 +11643,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11716,7 +11729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -11769,7 +11782,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -11832,7 +11845,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
@@ -11883,7 +11896,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>63</v>
       </c>
@@ -11940,7 +11953,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -11999,7 +12012,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>268</v>
       </c>
@@ -12060,7 +12073,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>240</v>
       </c>
@@ -12115,7 +12128,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>72</v>
       </c>
@@ -12174,7 +12187,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>76</v>
       </c>
@@ -12229,7 +12242,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>77</v>
       </c>
@@ -12282,7 +12295,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>78</v>
       </c>
@@ -12337,7 +12350,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>80</v>
       </c>
@@ -12388,7 +12401,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>82</v>
       </c>
@@ -12451,13 +12464,15 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46" t="s">
+      <c r="B15" s="46" t="s">
         <v>281</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="D15" s="44" t="s">
         <v>282</v>
@@ -12508,7 +12523,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>83</v>
       </c>
@@ -12563,7 +12578,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>245</v>
       </c>
@@ -12620,7 +12635,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>84</v>
       </c>
@@ -12677,7 +12692,7 @@
         <v>44534</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>85</v>
       </c>
@@ -12730,7 +12745,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>86</v>
       </c>
@@ -12789,7 +12804,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>252</v>
       </c>
@@ -12850,7 +12865,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>87</v>
       </c>
@@ -12905,7 +12920,7 @@
         <v>44165</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>88</v>
       </c>
@@ -12960,7 +12975,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>89</v>
       </c>
@@ -13015,7 +13030,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>235</v>
       </c>
@@ -13068,7 +13083,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>91</v>
       </c>
@@ -13127,7 +13142,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>93</v>
       </c>
@@ -13184,7 +13199,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>96</v>
       </c>
@@ -13239,7 +13254,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>98</v>
       </c>
@@ -13290,7 +13305,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>251</v>
       </c>
@@ -13343,7 +13358,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>101</v>
       </c>
@@ -13396,7 +13411,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>102</v>
       </c>
@@ -13453,7 +13468,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>104</v>
       </c>
@@ -13508,7 +13523,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>105</v>
       </c>
@@ -13561,7 +13576,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>106</v>
       </c>
@@ -13622,7 +13637,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>253</v>
       </c>
@@ -13677,7 +13692,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>107</v>
       </c>
@@ -13730,7 +13745,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>108</v>
       </c>
@@ -13783,7 +13798,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>110</v>
       </c>
@@ -13850,7 +13865,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
         <v>111</v>
       </c>
@@ -13905,7 +13920,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>113</v>
       </c>
@@ -13962,7 +13977,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>114</v>
       </c>
@@ -14025,7 +14040,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>115</v>
       </c>
@@ -14080,7 +14095,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>116</v>
       </c>
@@ -14151,7 +14166,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14162,34 +14177,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.23046875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" customWidth="1"/>
-    <col min="14" max="14" width="3.44140625" customWidth="1"/>
-    <col min="15" max="15" width="3.77734375" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" customWidth="1"/>
+    <col min="4" max="4" width="4.765625" customWidth="1"/>
+    <col min="5" max="5" width="11.53515625" customWidth="1"/>
+    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.23046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.3046875" customWidth="1"/>
+    <col min="11" max="11" width="6.69140625" customWidth="1"/>
+    <col min="12" max="12" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.69140625" customWidth="1"/>
+    <col min="14" max="14" width="3.4609375" customWidth="1"/>
+    <col min="15" max="15" width="3.765625" customWidth="1"/>
+    <col min="16" max="16" width="6.69140625" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
     <col min="18" max="24" width="4" customWidth="1"/>
-    <col min="25" max="27" width="8.33203125" customWidth="1"/>
-    <col min="28" max="28" width="2.33203125" customWidth="1"/>
-    <col min="29" max="1031" width="8.33203125" customWidth="1"/>
+    <col min="25" max="27" width="8.3046875" customWidth="1"/>
+    <col min="28" max="28" width="2.3046875" customWidth="1"/>
+    <col min="29" max="1031" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14271,7 +14288,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>47</v>
       </c>
@@ -14324,7 +14341,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>51</v>
       </c>
@@ -14387,7 +14404,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
@@ -14438,7 +14455,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>63</v>
       </c>
@@ -14495,7 +14512,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -14554,7 +14571,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>268</v>
       </c>
@@ -14615,7 +14632,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>240</v>
       </c>
@@ -14670,7 +14687,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>72</v>
       </c>
@@ -14729,7 +14746,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>76</v>
       </c>
@@ -14784,7 +14801,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>77</v>
       </c>
@@ -14837,7 +14854,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>78</v>
       </c>
@@ -14892,7 +14909,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>82</v>
       </c>
@@ -14955,13 +14972,15 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46" t="s">
+      <c r="B14" s="46" t="s">
         <v>281</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="D14" s="44" t="s">
         <v>282</v>
@@ -15012,7 +15031,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>83</v>
       </c>
@@ -15067,7 +15086,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>245</v>
       </c>
@@ -15124,7 +15143,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>84</v>
       </c>
@@ -15181,7 +15200,7 @@
         <v>44534</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>85</v>
       </c>
@@ -15234,7 +15253,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>86</v>
       </c>
@@ -15293,7 +15312,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>252</v>
       </c>
@@ -15354,7 +15373,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>88</v>
       </c>
@@ -15409,7 +15428,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>89</v>
       </c>
@@ -15464,7 +15483,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>235</v>
       </c>
@@ -15517,7 +15536,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>91</v>
       </c>
@@ -15576,7 +15595,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>92</v>
       </c>
@@ -15629,7 +15648,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>93</v>
       </c>
@@ -15686,7 +15705,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>94</v>
       </c>
@@ -15747,7 +15766,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>96</v>
       </c>
@@ -15802,7 +15821,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>97</v>
       </c>
@@ -15863,7 +15882,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>98</v>
       </c>
@@ -15914,7 +15933,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>251</v>
       </c>
@@ -15967,7 +15986,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>101</v>
       </c>
@@ -16020,7 +16039,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>102</v>
       </c>
@@ -16077,7 +16096,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>104</v>
       </c>
@@ -16132,7 +16151,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
         <v>105</v>
       </c>
@@ -16185,7 +16204,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>106</v>
       </c>
@@ -16246,7 +16265,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>253</v>
       </c>
@@ -16301,7 +16320,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>107</v>
       </c>
@@ -16354,7 +16373,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>108</v>
       </c>
@@ -16407,7 +16426,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="24" t="s">
         <v>109</v>
       </c>
@@ -16466,7 +16485,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>110</v>
       </c>
@@ -16533,7 +16552,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="s">
         <v>111</v>
       </c>
@@ -16588,7 +16607,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="45" t="s">
         <v>267</v>
       </c>
@@ -16651,7 +16670,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>113</v>
       </c>
@@ -16708,7 +16727,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>114</v>
       </c>
@@ -16771,7 +16790,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>116</v>
       </c>
@@ -16841,34 +16860,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.23046875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" customWidth="1"/>
+    <col min="4" max="4" width="4.765625" customWidth="1"/>
+    <col min="5" max="5" width="11.53515625" customWidth="1"/>
+    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.23046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.69140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" customWidth="1"/>
-    <col min="14" max="14" width="3.44140625" customWidth="1"/>
-    <col min="15" max="15" width="3.77734375" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="3.3046875" customWidth="1"/>
+    <col min="11" max="11" width="6.69140625" customWidth="1"/>
+    <col min="12" max="12" width="7.07421875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.69140625" customWidth="1"/>
+    <col min="14" max="14" width="3.4609375" customWidth="1"/>
+    <col min="15" max="15" width="3.765625" customWidth="1"/>
+    <col min="16" max="16" width="6.69140625" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
     <col min="18" max="24" width="4" customWidth="1"/>
-    <col min="25" max="27" width="8.33203125" customWidth="1"/>
-    <col min="28" max="28" width="2.33203125" customWidth="1"/>
-    <col min="29" max="1031" width="8.33203125" customWidth="1"/>
+    <col min="25" max="27" width="8.3046875" customWidth="1"/>
+    <col min="28" max="28" width="2.3046875" customWidth="1"/>
+    <col min="29" max="1031" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16950,7 +16971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -17003,7 +17024,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -17066,7 +17087,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
@@ -17117,7 +17138,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>63</v>
       </c>
@@ -17174,7 +17195,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -17233,7 +17254,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>268</v>
       </c>
@@ -17294,7 +17315,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>240</v>
       </c>
@@ -17349,7 +17370,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>72</v>
       </c>
@@ -17408,7 +17429,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>76</v>
       </c>
@@ -17463,7 +17484,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>77</v>
       </c>
@@ -17516,7 +17537,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>78</v>
       </c>
@@ -17571,7 +17592,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>80</v>
       </c>
@@ -17622,7 +17643,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>82</v>
       </c>
@@ -17685,7 +17706,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>265</v>
       </c>
@@ -17740,13 +17761,15 @@
         <v>45516</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="46" t="s">
         <v>281</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="D16" s="44" t="s">
         <v>282</v>
@@ -17797,7 +17820,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>83</v>
       </c>
@@ -17852,7 +17875,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>245</v>
       </c>
@@ -17909,7 +17932,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>84</v>
       </c>
@@ -17966,7 +17989,7 @@
         <v>44534</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>85</v>
       </c>
@@ -18019,7 +18042,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>86</v>
       </c>
@@ -18078,7 +18101,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>252</v>
       </c>
@@ -18139,7 +18162,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>87</v>
       </c>
@@ -18194,7 +18217,7 @@
         <v>44165</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>88</v>
       </c>
@@ -18249,7 +18272,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>89</v>
       </c>
@@ -18304,7 +18327,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>235</v>
       </c>
@@ -18357,7 +18380,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>91</v>
       </c>
@@ -18416,7 +18439,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>92</v>
       </c>
@@ -18469,7 +18492,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>93</v>
       </c>
@@ -18526,7 +18549,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>94</v>
       </c>
@@ -18587,7 +18610,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>97</v>
       </c>
@@ -18648,7 +18671,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>98</v>
       </c>
@@ -18699,7 +18722,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>251</v>
       </c>
@@ -18752,7 +18775,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>101</v>
       </c>
@@ -18805,7 +18828,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
         <v>102</v>
       </c>
@@ -18862,7 +18885,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
         <v>104</v>
       </c>
@@ -18917,7 +18940,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>105</v>
       </c>
@@ -18970,7 +18993,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>106</v>
       </c>
@@ -19031,7 +19054,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>253</v>
       </c>
@@ -19086,7 +19109,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>108</v>
       </c>
@@ -19139,7 +19162,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="24" t="s">
         <v>109</v>
       </c>
@@ -19198,7 +19221,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="s">
         <v>111</v>
       </c>
@@ -19253,7 +19276,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="45" t="s">
         <v>267</v>
       </c>
@@ -19316,7 +19339,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>113</v>
       </c>
@@ -19373,7 +19396,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>114</v>
       </c>
@@ -19436,7 +19459,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>116</v>
       </c>
@@ -19506,34 +19529,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.23046875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" customWidth="1"/>
-    <col min="14" max="14" width="3.44140625" customWidth="1"/>
-    <col min="15" max="15" width="3.77734375" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" customWidth="1"/>
+    <col min="4" max="4" width="4.765625" customWidth="1"/>
+    <col min="5" max="5" width="11.53515625" customWidth="1"/>
+    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.23046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.3046875" customWidth="1"/>
+    <col min="11" max="11" width="6.69140625" customWidth="1"/>
+    <col min="12" max="12" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.69140625" customWidth="1"/>
+    <col min="14" max="14" width="3.4609375" customWidth="1"/>
+    <col min="15" max="15" width="3.765625" customWidth="1"/>
+    <col min="16" max="16" width="6.69140625" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
     <col min="18" max="24" width="4" customWidth="1"/>
-    <col min="25" max="27" width="8.33203125" customWidth="1"/>
-    <col min="28" max="28" width="2.33203125" customWidth="1"/>
-    <col min="29" max="1031" width="8.33203125" customWidth="1"/>
+    <col min="25" max="27" width="8.3046875" customWidth="1"/>
+    <col min="28" max="28" width="2.3046875" customWidth="1"/>
+    <col min="29" max="1031" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19615,7 +19640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>47</v>
       </c>
@@ -19668,7 +19693,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>63</v>
       </c>
@@ -19725,7 +19750,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>68</v>
       </c>
@@ -19784,7 +19809,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>268</v>
       </c>
@@ -19845,7 +19870,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>240</v>
       </c>
@@ -19900,7 +19925,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>72</v>
       </c>
@@ -19959,7 +19984,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>76</v>
       </c>
@@ -20014,7 +20039,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
@@ -20067,7 +20092,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>78</v>
       </c>
@@ -20122,7 +20147,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>80</v>
       </c>
@@ -20173,7 +20198,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>82</v>
       </c>
@@ -20236,13 +20261,15 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46" t="s">
+      <c r="B13" s="46" t="s">
         <v>281</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>282</v>
@@ -20293,7 +20320,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>83</v>
       </c>
@@ -20348,7 +20375,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>245</v>
       </c>
@@ -20405,7 +20432,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>85</v>
       </c>
@@ -20458,7 +20485,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>86</v>
       </c>
@@ -20517,7 +20544,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>252</v>
       </c>
@@ -20578,7 +20605,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>88</v>
       </c>
@@ -20633,7 +20660,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>89</v>
       </c>
@@ -20688,7 +20715,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>235</v>
       </c>
@@ -20741,7 +20768,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>91</v>
       </c>
@@ -20800,7 +20827,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>92</v>
       </c>
@@ -20853,7 +20880,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>93</v>
       </c>
@@ -20910,7 +20937,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>94</v>
       </c>
@@ -20971,7 +20998,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>97</v>
       </c>
@@ -21032,7 +21059,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>98</v>
       </c>
@@ -21083,7 +21110,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>251</v>
       </c>
@@ -21136,7 +21163,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>101</v>
       </c>
@@ -21189,7 +21216,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
         <v>102</v>
       </c>
@@ -21246,7 +21273,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
         <v>104</v>
       </c>
@@ -21301,7 +21328,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>105</v>
       </c>
@@ -21354,7 +21381,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>253</v>
       </c>
@@ -21409,7 +21436,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>108</v>
       </c>
@@ -21462,7 +21489,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="24" t="s">
         <v>109</v>
       </c>
@@ -21521,7 +21548,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>110</v>
       </c>
@@ -21588,7 +21615,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>111</v>
       </c>
@@ -21643,7 +21670,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="45" t="s">
         <v>267</v>
       </c>
@@ -21706,7 +21733,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>114</v>
       </c>
@@ -21769,7 +21796,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>116</v>
       </c>
@@ -21837,32 +21864,32 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.23046875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" customWidth="1"/>
-    <col min="14" max="14" width="3.44140625" customWidth="1"/>
-    <col min="15" max="15" width="3.77734375" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" customWidth="1"/>
+    <col min="4" max="4" width="4.765625" customWidth="1"/>
+    <col min="5" max="5" width="11.53515625" customWidth="1"/>
+    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.23046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.3046875" customWidth="1"/>
+    <col min="11" max="11" width="6.69140625" customWidth="1"/>
+    <col min="12" max="12" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.69140625" customWidth="1"/>
+    <col min="14" max="14" width="3.4609375" customWidth="1"/>
+    <col min="15" max="15" width="3.765625" customWidth="1"/>
+    <col min="16" max="16" width="6.69140625" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
     <col min="18" max="24" width="4" customWidth="1"/>
-    <col min="25" max="27" width="8.33203125" customWidth="1"/>
-    <col min="28" max="28" width="2.33203125" customWidth="1"/>
-    <col min="29" max="1031" width="8.33203125" customWidth="1"/>
+    <col min="25" max="27" width="8.3046875" customWidth="1"/>
+    <col min="28" max="28" width="2.3046875" customWidth="1"/>
+    <col min="29" max="1031" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21944,7 +21971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>47</v>
       </c>
@@ -21997,7 +22024,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>51</v>
       </c>
@@ -22060,7 +22087,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
@@ -22111,7 +22138,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>63</v>
       </c>
@@ -22168,7 +22195,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -22227,7 +22254,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>268</v>
       </c>
@@ -22288,7 +22315,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>240</v>
       </c>
@@ -22343,7 +22370,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>72</v>
       </c>
@@ -22402,7 +22429,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>76</v>
       </c>
@@ -22457,7 +22484,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>77</v>
       </c>
@@ -22510,7 +22537,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>78</v>
       </c>
@@ -22565,7 +22592,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>82</v>
       </c>
@@ -22628,7 +22655,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>83</v>
       </c>
@@ -22683,7 +22710,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>245</v>
       </c>
@@ -22740,7 +22767,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>85</v>
       </c>
@@ -22793,7 +22820,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>86</v>
       </c>
@@ -22852,7 +22879,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>252</v>
       </c>
@@ -22913,7 +22940,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>87</v>
       </c>
@@ -22968,7 +22995,7 @@
         <v>44165</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>88</v>
       </c>
@@ -23023,7 +23050,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>89</v>
       </c>
@@ -23078,7 +23105,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>235</v>
       </c>
@@ -23131,7 +23158,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>91</v>
       </c>
@@ -23190,7 +23217,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>92</v>
       </c>
@@ -23243,7 +23270,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>93</v>
       </c>
@@ -23300,7 +23327,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>94</v>
       </c>
@@ -23361,7 +23388,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>95</v>
       </c>
@@ -23422,7 +23449,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>96</v>
       </c>
@@ -23477,7 +23504,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>97</v>
       </c>
@@ -23538,7 +23565,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>98</v>
       </c>
@@ -23589,7 +23616,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>251</v>
       </c>
@@ -23642,7 +23669,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>101</v>
       </c>
@@ -23695,7 +23722,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>102</v>
       </c>
@@ -23752,7 +23779,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>104</v>
       </c>
@@ -23807,7 +23834,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
         <v>105</v>
       </c>
@@ -23860,7 +23887,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>106</v>
       </c>
@@ -23921,7 +23948,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>253</v>
       </c>
@@ -23976,7 +24003,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>108</v>
       </c>
@@ -24029,7 +24056,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>109</v>
       </c>
@@ -24088,7 +24115,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>110</v>
       </c>
@@ -24155,7 +24182,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="s">
         <v>111</v>
       </c>
@@ -24210,7 +24237,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="45" t="s">
         <v>267</v>
       </c>
@@ -24273,7 +24300,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>113</v>
       </c>
@@ -24330,7 +24357,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>114</v>
       </c>
@@ -24393,7 +24420,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>116</v>
       </c>
@@ -24463,34 +24490,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.23046875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" customWidth="1"/>
-    <col min="14" max="14" width="3.44140625" customWidth="1"/>
-    <col min="15" max="15" width="3.77734375" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" customWidth="1"/>
+    <col min="4" max="4" width="4.765625" customWidth="1"/>
+    <col min="5" max="5" width="11.53515625" customWidth="1"/>
+    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.23046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.3046875" customWidth="1"/>
+    <col min="11" max="11" width="6.69140625" customWidth="1"/>
+    <col min="12" max="12" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.69140625" customWidth="1"/>
+    <col min="14" max="14" width="3.4609375" customWidth="1"/>
+    <col min="15" max="15" width="3.765625" customWidth="1"/>
+    <col min="16" max="16" width="6.69140625" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
     <col min="18" max="24" width="4" customWidth="1"/>
-    <col min="25" max="27" width="8.33203125" customWidth="1"/>
-    <col min="28" max="28" width="2.33203125" customWidth="1"/>
-    <col min="29" max="1031" width="8.33203125" customWidth="1"/>
+    <col min="25" max="27" width="8.3046875" customWidth="1"/>
+    <col min="28" max="28" width="2.3046875" customWidth="1"/>
+    <col min="29" max="1031" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24572,7 +24601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -24625,7 +24654,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -24688,7 +24717,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
@@ -24739,7 +24768,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>63</v>
       </c>
@@ -24796,7 +24825,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -24855,7 +24884,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>268</v>
       </c>
@@ -24916,7 +24945,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>72</v>
       </c>
@@ -24975,7 +25004,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>76</v>
       </c>
@@ -25030,7 +25059,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>77</v>
       </c>
@@ -25083,7 +25112,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>78</v>
       </c>
@@ -25138,7 +25167,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>82</v>
       </c>
@@ -25201,13 +25230,15 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46" t="s">
+      <c r="B13" s="46" t="s">
         <v>281</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>282</v>
@@ -25258,7 +25289,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>83</v>
       </c>
@@ -25313,7 +25344,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>85</v>
       </c>
@@ -25366,7 +25397,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>86</v>
       </c>
@@ -25425,7 +25456,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>252</v>
       </c>
@@ -25486,7 +25517,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>87</v>
       </c>
@@ -25541,7 +25572,7 @@
         <v>44165</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>88</v>
       </c>
@@ -25596,7 +25627,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>89</v>
       </c>
@@ -25651,7 +25682,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>235</v>
       </c>
@@ -25704,7 +25735,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>91</v>
       </c>
@@ -25763,7 +25794,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>92</v>
       </c>
@@ -25816,7 +25847,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>93</v>
       </c>
@@ -25873,7 +25904,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>94</v>
       </c>
@@ -25934,7 +25965,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>96</v>
       </c>
@@ -25989,7 +26020,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>97</v>
       </c>
@@ -26050,7 +26081,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>98</v>
       </c>
@@ -26101,7 +26132,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>251</v>
       </c>
@@ -26154,7 +26185,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>101</v>
       </c>
@@ -26207,7 +26238,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
         <v>102</v>
       </c>
@@ -26264,7 +26295,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>104</v>
       </c>
@@ -26319,7 +26350,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>105</v>
       </c>
@@ -26372,7 +26403,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>253</v>
       </c>
@@ -26427,7 +26458,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>108</v>
       </c>
@@ -26480,7 +26511,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
         <v>109</v>
       </c>
@@ -26539,7 +26570,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>110</v>
       </c>
@@ -26606,7 +26637,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>111</v>
       </c>
@@ -26661,7 +26692,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="45" t="s">
         <v>267</v>
       </c>
@@ -26724,7 +26755,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>114</v>
       </c>
@@ -26787,7 +26818,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>116</v>
       </c>
@@ -26857,18 +26888,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26945,7 +26978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -26998,7 +27031,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -27061,7 +27094,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
@@ -27112,7 +27145,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>63</v>
       </c>
@@ -27169,7 +27202,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -27228,7 +27261,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>268</v>
       </c>
@@ -27289,7 +27322,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>240</v>
       </c>
@@ -27344,7 +27377,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>72</v>
       </c>
@@ -27403,7 +27436,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>76</v>
       </c>
@@ -27458,7 +27491,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>77</v>
       </c>
@@ -27511,7 +27544,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>78</v>
       </c>
@@ -27566,7 +27599,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>80</v>
       </c>
@@ -27617,7 +27650,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>82</v>
       </c>
@@ -27680,7 +27713,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>265</v>
       </c>
@@ -27735,13 +27768,15 @@
         <v>45516</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="46" t="s">
         <v>281</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="D16" s="44" t="s">
         <v>282</v>
@@ -27792,7 +27827,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>83</v>
       </c>
@@ -27847,7 +27882,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>245</v>
       </c>
@@ -27904,7 +27939,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>85</v>
       </c>
@@ -27957,7 +27992,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>86</v>
       </c>
@@ -28016,7 +28051,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>252</v>
       </c>
@@ -28077,7 +28112,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>87</v>
       </c>
@@ -28132,7 +28167,7 @@
         <v>44165</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>88</v>
       </c>
@@ -28187,7 +28222,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>89</v>
       </c>
@@ -28242,7 +28277,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>235</v>
       </c>
@@ -28295,7 +28330,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>91</v>
       </c>
@@ -28354,7 +28389,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>92</v>
       </c>
@@ -28407,7 +28442,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>93</v>
       </c>
@@ -28464,7 +28499,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>94</v>
       </c>
@@ -28525,7 +28560,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>96</v>
       </c>
@@ -28580,7 +28615,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>97</v>
       </c>
@@ -28641,7 +28676,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>98</v>
       </c>
@@ -28692,7 +28727,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>251</v>
       </c>
@@ -28745,7 +28780,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>101</v>
       </c>
@@ -28798,7 +28833,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
         <v>102</v>
       </c>
@@ -28855,7 +28890,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
         <v>104</v>
       </c>
@@ -28910,7 +28945,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>105</v>
       </c>
@@ -28963,7 +28998,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>106</v>
       </c>
@@ -29024,7 +29059,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>253</v>
       </c>
@@ -29079,7 +29114,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
         <v>107</v>
       </c>
@@ -29132,7 +29167,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>108</v>
       </c>
@@ -29185,7 +29220,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
         <v>109</v>
       </c>
@@ -29244,7 +29279,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>110</v>
       </c>
@@ -29311,7 +29346,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="19" t="s">
         <v>111</v>
       </c>
@@ -29366,7 +29401,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="45" t="s">
         <v>267</v>
       </c>
@@ -29429,7 +29464,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>113</v>
       </c>
@@ -29486,7 +29521,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
         <v>114</v>
       </c>
@@ -29549,7 +29584,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>115</v>
       </c>
@@ -29604,7 +29639,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
         <v>116</v>
       </c>
@@ -29673,14 +29708,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29757,7 +29794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -29810,7 +29847,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -29873,7 +29910,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
@@ -29924,7 +29961,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>63</v>
       </c>
@@ -29981,7 +30018,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -30040,7 +30077,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>268</v>
       </c>
@@ -30101,7 +30138,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>240</v>
       </c>
@@ -30156,7 +30193,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>72</v>
       </c>
@@ -30215,7 +30252,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>76</v>
       </c>
@@ -30270,7 +30307,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>77</v>
       </c>
@@ -30323,7 +30360,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>78</v>
       </c>
@@ -30378,7 +30415,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>80</v>
       </c>
@@ -30429,7 +30466,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>82</v>
       </c>
@@ -30492,7 +30529,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>265</v>
       </c>
@@ -30547,13 +30584,15 @@
         <v>45516</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="46" t="s">
         <v>281</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="D16" s="44" t="s">
         <v>282</v>
@@ -30604,7 +30643,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>83</v>
       </c>
@@ -30659,7 +30698,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>245</v>
       </c>
@@ -30716,7 +30755,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>85</v>
       </c>
@@ -30769,7 +30808,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>86</v>
       </c>
@@ -30828,7 +30867,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>252</v>
       </c>
@@ -30889,7 +30928,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>88</v>
       </c>
@@ -30944,7 +30983,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>89</v>
       </c>
@@ -30999,7 +31038,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>235</v>
       </c>
@@ -31052,7 +31091,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>92</v>
       </c>
@@ -31105,7 +31144,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>93</v>
       </c>
@@ -31162,7 +31201,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>94</v>
       </c>
@@ -31223,7 +31262,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>96</v>
       </c>
@@ -31278,7 +31317,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>97</v>
       </c>
@@ -31339,7 +31378,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>98</v>
       </c>
@@ -31390,7 +31429,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>251</v>
       </c>
@@ -31443,7 +31482,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>101</v>
       </c>
@@ -31496,7 +31535,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>102</v>
       </c>
@@ -31553,7 +31592,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>104</v>
       </c>
@@ -31608,7 +31647,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
         <v>105</v>
       </c>
@@ -31661,7 +31700,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>253</v>
       </c>
@@ -31716,7 +31755,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>107</v>
       </c>
@@ -31769,7 +31808,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>108</v>
       </c>
@@ -31822,7 +31861,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>109</v>
       </c>
@@ -31881,7 +31920,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>110</v>
       </c>
@@ -31948,7 +31987,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="s">
         <v>111</v>
       </c>
@@ -32003,7 +32042,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="45" t="s">
         <v>267</v>
       </c>
@@ -32066,7 +32105,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>113</v>
       </c>
@@ -32123,7 +32162,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>114</v>
       </c>
@@ -32186,7 +32225,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>116</v>
       </c>
@@ -32255,14 +32294,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32339,7 +32380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -32392,7 +32433,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
@@ -32455,7 +32496,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
@@ -32506,7 +32547,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>63</v>
       </c>
@@ -32563,7 +32604,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
@@ -32622,7 +32663,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>268</v>
       </c>
@@ -32683,7 +32724,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>240</v>
       </c>
@@ -32738,7 +32779,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>72</v>
       </c>
@@ -32797,7 +32838,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>76</v>
       </c>
@@ -32852,7 +32893,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>77</v>
       </c>
@@ -32905,7 +32946,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>78</v>
       </c>
@@ -32960,7 +33001,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>80</v>
       </c>
@@ -33011,7 +33052,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>82</v>
       </c>
@@ -33074,7 +33115,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>265</v>
       </c>
@@ -33129,13 +33170,15 @@
         <v>45516</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="46" t="s">
         <v>281</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="D16" s="44" t="s">
         <v>282</v>
@@ -33186,7 +33229,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>83</v>
       </c>
@@ -33241,7 +33284,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>245</v>
       </c>
@@ -33298,7 +33341,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>85</v>
       </c>
@@ -33351,7 +33394,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>86</v>
       </c>
@@ -33410,7 +33453,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>252</v>
       </c>
@@ -33471,7 +33514,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>88</v>
       </c>
@@ -33526,7 +33569,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>89</v>
       </c>
@@ -33581,7 +33624,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>235</v>
       </c>
@@ -33634,7 +33677,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>92</v>
       </c>
@@ -33687,7 +33730,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>93</v>
       </c>
@@ -33744,7 +33787,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>94</v>
       </c>
@@ -33805,7 +33848,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>96</v>
       </c>
@@ -33860,7 +33903,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>97</v>
       </c>
@@ -33921,7 +33964,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>98</v>
       </c>
@@ -33972,7 +34015,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>251</v>
       </c>
@@ -34025,7 +34068,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>101</v>
       </c>
@@ -34078,7 +34121,7 @@
         <v>44765</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>102</v>
       </c>
@@ -34135,7 +34178,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>104</v>
       </c>
@@ -34190,7 +34233,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
         <v>105</v>
       </c>
@@ -34243,7 +34286,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>253</v>
       </c>
@@ -34298,7 +34341,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>107</v>
       </c>
@@ -34351,7 +34394,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>108</v>
       </c>
@@ -34404,7 +34447,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>109</v>
       </c>
@@ -34463,7 +34506,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>110</v>
       </c>
@@ -34530,7 +34573,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="s">
         <v>111</v>
       </c>
@@ -34585,7 +34628,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="45" t="s">
         <v>267</v>
       </c>
@@ -34648,7 +34691,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>113</v>
       </c>
@@ -34705,7 +34748,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>114</v>
       </c>
@@ -34768,7 +34811,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>116</v>
       </c>

--- a/app/data/pools/erm.xlsx
+++ b/app/data/pools/erm.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsomalaraju\workspace\discovery\app\data\pools\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0615A28-4B47-47B1-BD01-40872FE4DFFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7410" tabRatio="734"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERM Vendors Master File" sheetId="20" r:id="rId1"/>
-    <sheet name="E1-Desktop Applications" sheetId="1" r:id="rId2"/>
-    <sheet name="E2-Electronic Messages" sheetId="10" r:id="rId3"/>
-    <sheet name="E3-Social Media" sheetId="11" r:id="rId4"/>
-    <sheet name="E4-Cloud Services" sheetId="12" r:id="rId5"/>
-    <sheet name="E5-Websites" sheetId="13" r:id="rId6"/>
-    <sheet name="E6-Digital Media (Photo)" sheetId="14" r:id="rId7"/>
-    <sheet name="E7-Digital Media (Audio)" sheetId="15" r:id="rId8"/>
-    <sheet name="E8-Digital Media (Video)" sheetId="16" r:id="rId9"/>
-    <sheet name="E9-Databases" sheetId="17" r:id="rId10"/>
-    <sheet name="E10-Shared Drives" sheetId="18" r:id="rId11"/>
-    <sheet name="E11-Engineering Drawings" sheetId="19" r:id="rId12"/>
+    <sheet name="E(1)-Desktop Applications" sheetId="1" r:id="rId2"/>
+    <sheet name="E(2)-Electronic Messages" sheetId="10" r:id="rId3"/>
+    <sheet name="E(3)-Social Media" sheetId="11" r:id="rId4"/>
+    <sheet name="E(4)-Cloud Services" sheetId="12" r:id="rId5"/>
+    <sheet name="E(5)-Websites" sheetId="13" r:id="rId6"/>
+    <sheet name="E(6)-Digital Media (Photo)" sheetId="14" r:id="rId7"/>
+    <sheet name="E(7)-Digital Media (Audio)" sheetId="15" r:id="rId8"/>
+    <sheet name="E(8)-Digital Media (Video)" sheetId="16" r:id="rId9"/>
+    <sheet name="E(9)-Databases" sheetId="17" r:id="rId10"/>
+    <sheet name="E(10)-Shared Drives" sheetId="18" r:id="rId11"/>
+    <sheet name="E(11)-Engineering Drawings" sheetId="19" r:id="rId12"/>
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="21" state="veryHidden" r:id="rId13"/>
   </sheets>
   <definedNames>
@@ -1003,7 +1009,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1367,11 +1373,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text 2" xfId="4"/>
+    <cellStyle name="Explanatory Text 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1447,6 +1453,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1468,7 +1477,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="EsriDoNotEdit"/>
+        <xdr:cNvPr id="2" name="EsriDoNotEdit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1588,7 +1603,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1621,9 +1636,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1656,6 +1688,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1831,10 +1880,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6932,10 +6981,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK57"/>
+  <autoFilter ref="A1:AK57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -6943,7 +6992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -9903,15 +9952,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
@@ -12511,18 +12560,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
@@ -15123,15 +15172,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15144,11 +15193,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:Y49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17960,8 +18009,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -17969,10 +18018,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -20824,8 +20873,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -20833,7 +20882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
@@ -23361,7 +23410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB49"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
@@ -26177,8 +26226,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -26186,7 +26235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
@@ -28717,8 +28766,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -28726,7 +28775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
@@ -31730,15 +31779,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
@@ -34511,15 +34560,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -37290,8 +37339,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/data/pools/erm.xlsx
+++ b/app/data/pools/erm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsomalaraju\workspace\discovery\app\data\pools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0615A28-4B47-47B1-BD01-40872FE4DFFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5053BBC9-0F9E-4A44-BDB9-12E70602808A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERM Vendors Master File" sheetId="20" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8133" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8093" uniqueCount="324">
   <si>
     <t>ContractorName</t>
   </si>
@@ -1005,6 +1005,9 @@
   <si>
     <t>joseph.dooley@nccsite.com</t>
   </si>
+  <si>
+    <t>133097183</t>
+  </si>
 </sst>
 </file>
 
@@ -6995,8 +6998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:Y52"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7593,8 +7596,8 @@
       <c r="B11" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>234</v>
+      <c r="C11" s="22">
+        <v>78409916</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="19" t="s">
@@ -7711,8 +7714,8 @@
       <c r="B13" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>247</v>
+      <c r="C13" s="22">
+        <v>786283130</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>248</v>
@@ -8102,8 +8105,8 @@
       <c r="B20" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>237</v>
+      <c r="C20" s="22">
+        <v>12290920</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="s">
@@ -8214,8 +8217,8 @@
       <c r="B22" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>184</v>
+      <c r="C22" s="22">
+        <v>120439869</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>158</v>
@@ -8501,8 +8504,8 @@
       <c r="B27" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>176</v>
+      <c r="C27" s="22">
+        <v>1742662</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>177</v>
@@ -9352,8 +9355,8 @@
       <c r="B42" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="C42" s="21" t="s">
-        <v>254</v>
+      <c r="C42" s="22">
+        <v>79120324</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>255</v>
@@ -9521,8 +9524,8 @@
       <c r="B45" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>277</v>
+      <c r="C45" s="22">
+        <v>78830982</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>278</v>
@@ -9576,8 +9579,8 @@
       <c r="B46" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="C46" s="21" t="s">
-        <v>292</v>
+      <c r="C46" s="22">
+        <v>86512134</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>282</v>
@@ -9759,8 +9762,8 @@
       <c r="B49" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="C49" s="45" t="s">
-        <v>296</v>
+      <c r="C49" s="48">
+        <v>66493946</v>
       </c>
       <c r="D49" s="43" t="s">
         <v>297</v>
@@ -9812,8 +9815,8 @@
       <c r="B50" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="C50" s="45" t="s">
-        <v>308</v>
+      <c r="C50" s="48">
+        <v>362904331</v>
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="44" t="s">
@@ -9963,8 +9966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:Y46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10339,8 +10342,8 @@
       <c r="B7" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>241</v>
+      <c r="C7" s="22">
+        <v>101471444</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>242</v>
@@ -10667,8 +10670,8 @@
       <c r="B13" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>234</v>
+      <c r="C13" s="22">
+        <v>78409916</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="19" t="s">
@@ -10785,8 +10788,8 @@
       <c r="B15" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>247</v>
+      <c r="C15" s="22">
+        <v>786283130</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>248</v>
@@ -11064,8 +11067,8 @@
       <c r="B20" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>237</v>
+      <c r="C20" s="22">
+        <v>12290920</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="s">
@@ -11117,8 +11120,8 @@
       <c r="B21" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>184</v>
+      <c r="C21" s="22">
+        <v>120439869</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>158</v>
@@ -11343,8 +11346,8 @@
       <c r="B25" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>176</v>
+      <c r="C25" s="22">
+        <v>1742662</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>177</v>
@@ -12074,8 +12077,8 @@
       <c r="B38" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>254</v>
+      <c r="C38" s="22">
+        <v>79120324</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>255</v>
@@ -12367,8 +12370,8 @@
       <c r="B43" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="C43" s="45" t="s">
-        <v>296</v>
+      <c r="C43" s="48">
+        <v>66493946</v>
       </c>
       <c r="D43" s="43" t="s">
         <v>297</v>
@@ -12420,8 +12423,8 @@
       <c r="B44" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="C44" s="45" t="s">
-        <v>308</v>
+      <c r="C44" s="48">
+        <v>362904331</v>
       </c>
       <c r="D44" s="43"/>
       <c r="E44" s="44" t="s">
@@ -12571,7 +12574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
@@ -15196,7 +15199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -18021,8 +18024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18139,7 +18142,7 @@
       <c r="B2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="22">
         <v>143975295</v>
       </c>
       <c r="D2" s="20"/>
@@ -18255,7 +18258,7 @@
       <c r="B4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="22">
         <v>126624399</v>
       </c>
       <c r="D4" s="20"/>
@@ -18306,7 +18309,7 @@
       <c r="B5" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="22">
         <v>122477008</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -18363,7 +18366,7 @@
       <c r="B6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="22">
         <v>133097183</v>
       </c>
       <c r="D6" s="20"/>
@@ -18422,8 +18425,8 @@
       <c r="B7" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>241</v>
+      <c r="C7" s="22">
+        <v>101471444</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>242</v>
@@ -18750,8 +18753,8 @@
       <c r="B13" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>234</v>
+      <c r="C13" s="22">
+        <v>78409916</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="19" t="s">
@@ -18868,8 +18871,8 @@
       <c r="B15" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>247</v>
+      <c r="C15" s="22">
+        <v>786283130</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>248</v>
@@ -19259,8 +19262,8 @@
       <c r="B22" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>237</v>
+      <c r="C22" s="22">
+        <v>12290920</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19" t="s">
@@ -19371,8 +19374,8 @@
       <c r="B24" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>184</v>
+      <c r="C24" s="22">
+        <v>120439869</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>158</v>
@@ -19542,8 +19545,8 @@
       <c r="B27" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>176</v>
+      <c r="C27" s="22">
+        <v>1742662</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>177</v>
@@ -19865,7 +19868,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>106</v>
       </c>
@@ -19926,7 +19929,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>108</v>
       </c>
@@ -19979,7 +19982,7 @@
         <v>44842</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
         <v>109</v>
       </c>
@@ -20038,7 +20041,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>111</v>
       </c>
@@ -20093,7 +20096,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>113</v>
       </c>
@@ -20150,7 +20153,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>114</v>
       </c>
@@ -20213,7 +20216,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>116</v>
       </c>
@@ -20266,15 +20269,15 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>252</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>254</v>
+      <c r="C40" s="22">
+        <v>79120324</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>255</v>
@@ -20327,7 +20330,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>251</v>
       </c>
@@ -20380,7 +20383,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>253</v>
       </c>
@@ -20435,15 +20438,15 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>265</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C43" s="21" t="s">
-        <v>277</v>
+      <c r="C43" s="22">
+        <v>78830982</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>278</v>
@@ -20490,15 +20493,15 @@
         <v>45516</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
         <v>266</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>292</v>
+      <c r="C44" s="22">
+        <v>86512134</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>282</v>
@@ -20549,7 +20552,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>267</v>
       </c>
@@ -20612,7 +20615,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>268</v>
       </c>
@@ -20673,15 +20676,15 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="43" t="s">
         <v>293</v>
       </c>
       <c r="B47" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="C47" s="45" t="s">
-        <v>296</v>
+      <c r="C47" s="48">
+        <v>66493946</v>
       </c>
       <c r="D47" s="43" t="s">
         <v>297</v>
@@ -20726,35 +20729,38 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B48" s="43" t="s">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A48" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="B48" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="D48" s="45" t="s">
-        <v>308</v>
-      </c>
-      <c r="E48" s="43"/>
+      <c r="C48" s="48">
+        <v>362904331</v>
+      </c>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44" t="s">
+        <v>310</v>
+      </c>
       <c r="F48" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="G48" s="44" t="s">
         <v>309</v>
       </c>
+      <c r="G48" s="46"/>
       <c r="H48" s="46"/>
       <c r="I48" s="46"/>
       <c r="J48" s="46"/>
       <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="46"/>
       <c r="N48" s="46"/>
       <c r="O48" s="46"/>
       <c r="P48" s="46"/>
       <c r="Q48" s="46"/>
       <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
+      <c r="S48" s="46" t="s">
+        <v>275</v>
+      </c>
       <c r="T48" s="46" t="s">
         <v>275</v>
       </c>
@@ -20770,40 +20776,38 @@
       <c r="X48" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="Y48" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z48" s="47">
+      <c r="Y48" s="47">
         <v>45663</v>
       </c>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B49" s="43" t="s">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A49" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="B49" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="44">
+      <c r="C49" s="44">
         <v>117201286</v>
       </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44" t="s">
+      <c r="D49" s="44"/>
+      <c r="E49" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="G49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="46"/>
       <c r="H49" s="46"/>
       <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="46"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46" t="s">
-        <v>20</v>
-      </c>
+      <c r="J49" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="46"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="46"/>
       <c r="P49" s="46"/>
       <c r="Q49" s="46"/>
       <c r="R49" s="46"/>
@@ -20813,30 +20817,30 @@
       <c r="V49" s="46"/>
       <c r="W49" s="46"/>
       <c r="X49" s="46"/>
-      <c r="Y49" s="46"/>
-      <c r="Z49" s="47">
+      <c r="Y49" s="47">
         <v>45695</v>
       </c>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B50" s="43" t="s">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A50" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="B50" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="D50" s="48">
+      <c r="C50" s="48">
         <v>125132048</v>
       </c>
+      <c r="D50" s="44" t="s">
+        <v>320</v>
+      </c>
       <c r="E50" s="44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="G50" s="44" t="s">
         <v>322</v>
       </c>
+      <c r="G50" s="46"/>
       <c r="H50" s="46"/>
       <c r="I50" s="46"/>
       <c r="J50" s="46"/>
@@ -20848,7 +20852,9 @@
       <c r="P50" s="46"/>
       <c r="Q50" s="46"/>
       <c r="R50" s="46"/>
-      <c r="S50" s="46"/>
+      <c r="S50" s="46" t="s">
+        <v>20</v>
+      </c>
       <c r="T50" s="46" t="s">
         <v>20</v>
       </c>
@@ -20864,10 +20870,7 @@
       <c r="X50" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="Y50" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z50" s="47">
+      <c r="Y50" s="47">
         <v>45656</v>
       </c>
     </row>
@@ -20885,7 +20888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:Y44"/>
     </sheetView>
   </sheetViews>
@@ -23413,7 +23416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -26238,8 +26241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:Y44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26580,8 +26583,8 @@
       <c r="B6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="21">
-        <v>133097183</v>
+      <c r="C6" s="21" t="s">
+        <v>323</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
@@ -31791,7 +31794,7 @@
   <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:Y49"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34571,13 +34574,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:Y49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -34947,8 +34953,8 @@
       <c r="B7" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>241</v>
+      <c r="C7" s="22">
+        <v>101471444</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>242</v>
@@ -35275,8 +35281,8 @@
       <c r="B13" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>234</v>
+      <c r="C13" s="22">
+        <v>78409916</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="19" t="s">
@@ -35393,8 +35399,8 @@
       <c r="B15" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>247</v>
+      <c r="C15" s="22">
+        <v>786283130</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>248</v>
@@ -35672,8 +35678,8 @@
       <c r="B20" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>237</v>
+      <c r="C20" s="22">
+        <v>12290920</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="s">
@@ -35725,8 +35731,8 @@
       <c r="B21" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>184</v>
+      <c r="C21" s="22">
+        <v>120439869</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>158</v>
@@ -35951,8 +35957,8 @@
       <c r="B25" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>176</v>
+      <c r="C25" s="22">
+        <v>1742662</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>177</v>
@@ -36741,8 +36747,8 @@
       <c r="B39" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>254</v>
+      <c r="C39" s="22">
+        <v>79120324</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>255</v>
@@ -36910,8 +36916,8 @@
       <c r="B42" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C42" s="21" t="s">
-        <v>277</v>
+      <c r="C42" s="22">
+        <v>78830982</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>278</v>
@@ -36962,12 +36968,11 @@
       <c r="A43" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="D43" s="21" t="s">
-        <v>292</v>
+      <c r="C43" s="22">
+        <v>86512134</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>283</v>
@@ -36981,7 +36986,7 @@
       <c r="H43" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="19" t="s">
         <v>286</v>
       </c>
       <c r="J43" s="7"/>
@@ -37146,8 +37151,8 @@
       <c r="B46" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="C46" s="45" t="s">
-        <v>296</v>
+      <c r="C46" s="48">
+        <v>66493946</v>
       </c>
       <c r="D46" s="43" t="s">
         <v>297</v>
@@ -37199,8 +37204,8 @@
       <c r="B47" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="C47" s="45" t="s">
-        <v>308</v>
+      <c r="C47" s="48">
+        <v>362904331</v>
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="44" t="s">
@@ -37341,7 +37346,9 @@
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" display="mailto:andrewm@aitheras.com" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
     <hyperlink ref="I3" r:id="rId2" display="mailto:denise.muir@aitheras.com" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="I43" r:id="rId3" xr:uid="{AAFD3D28-1BC5-4399-A02A-44CDDE5521DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/app/data/pools/erm.xlsx
+++ b/app/data/pools/erm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\discovery\app\data\pools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsomalaraju\Desktop\Discovery\OLD data\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96A64D6-C006-47C0-A077-0A21CAAB954D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05160E38-0B39-4C2F-9BD3-5654A87E8440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="674" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="674" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERM Vendors Master File" sheetId="20" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7636" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7635" uniqueCount="294">
   <si>
     <t>ContractorName</t>
   </si>
@@ -6497,7 +6497,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK52" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState ref="A2:AK52">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK52">
     <sortCondition ref="A2:A52"/>
   </sortState>
   <hyperlinks>
@@ -9271,7 +9271,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Y48">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y48">
     <sortCondition ref="A2:A48"/>
   </sortState>
   <hyperlinks>
@@ -11687,7 +11687,7 @@
       <c r="C43" s="53"/>
     </row>
   </sheetData>
-  <sortState ref="A2:Y42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y42">
     <sortCondition ref="A2:A42"/>
   </sortState>
   <hyperlinks>
@@ -11702,7 +11702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" activeCellId="1" sqref="C3:C44 C2"/>
     </sheetView>
   </sheetViews>
@@ -14208,7 +14208,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Y44">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y44">
     <sortCondition ref="A2:A44"/>
   </sortState>
   <hyperlinks>
@@ -14236,7 +14236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -16903,7 +16903,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Y46">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y46">
     <sortCondition ref="A2:A46"/>
   </sortState>
   <hyperlinks>
@@ -16919,8 +16919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17709,8 +17709,8 @@
       <c r="B14" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>234</v>
+      <c r="C14" s="22">
+        <v>78409916</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="19" t="s">
@@ -19572,7 +19572,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Y46">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y46">
     <sortCondition ref="A2:A46"/>
   </sortState>
   <hyperlinks>
@@ -21909,7 +21909,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Y40">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y40">
     <sortCondition ref="A2:A40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -24535,7 +24535,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Y45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y45">
     <sortCondition ref="A2:A45"/>
   </sortState>
   <hyperlinks>
@@ -26936,7 +26936,7 @@
       <c r="C42" s="54"/>
     </row>
   </sheetData>
-  <sortState ref="A2:Y41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y41">
     <sortCondition ref="A2:A41"/>
   </sortState>
   <hyperlinks>
@@ -29757,7 +29757,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Y49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y49">
     <sortCondition ref="A2:A49"/>
   </sortState>
   <hyperlinks>
@@ -32343,7 +32343,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Y45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y45">
     <sortCondition ref="A2:A45"/>
   </sortState>
   <hyperlinks>
@@ -34929,7 +34929,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Y45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y45">
     <sortCondition ref="A2:A45"/>
   </sortState>
   <hyperlinks>
